--- a/cta策略/result/螺纹/MACD_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/MACD_1d/绩效.xlsx
@@ -438,13 +438,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.1375387618564849</v>
+        <v>0.08978678339815582</v>
       </c>
       <c r="D2">
-        <v>0.3650882694496971</v>
+        <v>0.2281123764162832</v>
       </c>
       <c r="E2">
-        <v>0.322274278869707</v>
+        <v>0.2103841163108952</v>
       </c>
       <c r="F2">
         <v>0.75</v>
@@ -458,13 +458,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.2345516553217293</v>
+        <v>0.1509499267565608</v>
       </c>
       <c r="D3">
-        <v>0.7316559616364738</v>
+        <v>0.5105895239956244</v>
       </c>
       <c r="E3">
-        <v>0.624716250854785</v>
+        <v>0.4020473536237153</v>
       </c>
       <c r="F3">
         <v>0.75</v>
@@ -478,13 +478,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.1531693566983039</v>
+        <v>0.0997552673286668</v>
       </c>
       <c r="D4">
-        <v>0.4249419864537072</v>
+        <v>0.2746445934517293</v>
       </c>
       <c r="E4">
-        <v>0.3400119285202608</v>
+        <v>0.2214410346534396</v>
       </c>
       <c r="F4">
         <v>0.7</v>
@@ -498,13 +498,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.08593946169144018</v>
+        <v>0.05655004463313973</v>
       </c>
       <c r="D5">
-        <v>0.1724589879067915</v>
+        <v>0.07606194516035285</v>
       </c>
       <c r="E5">
-        <v>0.1777413769088829</v>
+        <v>0.1169577118535079</v>
       </c>
       <c r="F5">
         <v>0.65</v>
@@ -518,13 +518,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.1467964924075478</v>
+        <v>0.09569640693677961</v>
       </c>
       <c r="D6">
-        <v>0.4028544787030537</v>
+        <v>0.2571697409661796</v>
       </c>
       <c r="E6">
-        <v>0.3452842233503629</v>
+        <v>0.2250902525303616</v>
       </c>
       <c r="F6">
         <v>0.65</v>
@@ -538,13 +538,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>0.1618966424522073</v>
+        <v>0.1053015637938182</v>
       </c>
       <c r="D7">
-        <v>0.4601035627398409</v>
+        <v>0.3016956802522841</v>
       </c>
       <c r="E7">
-        <v>0.4002593559229643</v>
+        <v>0.260338543550938</v>
       </c>
       <c r="F7">
         <v>0.7</v>

--- a/cta策略/result/螺纹/MACD_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/MACD_1d/绩效.xlsx
@@ -438,13 +438,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.08978678339815582</v>
+        <v>0.1085154702639164</v>
       </c>
       <c r="D2">
-        <v>0.2281123764162832</v>
+        <v>0.3154484504499548</v>
       </c>
       <c r="E2">
-        <v>0.2103841163108952</v>
+        <v>0.271348929745626</v>
       </c>
       <c r="F2">
         <v>0.75</v>
@@ -458,13 +458,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.1509499267565608</v>
+        <v>0.1660391301161654</v>
       </c>
       <c r="D3">
-        <v>0.5105895239956244</v>
+        <v>0.5817053355418541</v>
       </c>
       <c r="E3">
-        <v>0.4020473536237153</v>
+        <v>0.4586818142212715</v>
       </c>
       <c r="F3">
         <v>0.75</v>
@@ -478,13 +478,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.0997552673286668</v>
+        <v>0.1131239405969842</v>
       </c>
       <c r="D4">
-        <v>0.2746445934517293</v>
+        <v>0.3372329604474966</v>
       </c>
       <c r="E4">
-        <v>0.2214410346534396</v>
+        <v>0.2579525553268546</v>
       </c>
       <c r="F4">
         <v>0.7</v>
@@ -498,13 +498,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.05655004463313973</v>
+        <v>0.06998757718104986</v>
       </c>
       <c r="D5">
-        <v>0.07606194516035285</v>
+        <v>0.1383755795446832</v>
       </c>
       <c r="E5">
-        <v>0.1169577118535079</v>
+        <v>0.1488252851040123</v>
       </c>
       <c r="F5">
         <v>0.65</v>
@@ -518,13 +518,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.09569640693677961</v>
+        <v>0.1070301189803036</v>
       </c>
       <c r="D6">
-        <v>0.2571697409661796</v>
+        <v>0.3100130702349997</v>
       </c>
       <c r="E6">
-        <v>0.2250902525303616</v>
+        <v>0.2593125624615202</v>
       </c>
       <c r="F6">
         <v>0.65</v>
@@ -538,13 +538,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>0.1053015637938182</v>
+        <v>0.1167212088687719</v>
       </c>
       <c r="D7">
-        <v>0.3016956802522841</v>
+        <v>0.3550125066083632</v>
       </c>
       <c r="E7">
-        <v>0.260338543550938</v>
+        <v>0.2980071872296199</v>
       </c>
       <c r="F7">
         <v>0.7</v>

--- a/cta策略/result/螺纹/MACD_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/MACD_1d/绩效.xlsx
@@ -438,13 +438,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.1085154702639164</v>
+        <v>0.09146749509914653</v>
       </c>
       <c r="D2">
-        <v>0.3154484504499548</v>
+        <v>0.2360639020534516</v>
       </c>
       <c r="E2">
-        <v>0.271348929745626</v>
+        <v>0.2167087273013985</v>
       </c>
       <c r="F2">
         <v>0.75</v>
@@ -458,13 +458,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.1660391301161654</v>
+        <v>0.1524936572571876</v>
       </c>
       <c r="D3">
-        <v>0.5817053355418541</v>
+        <v>0.5180926910550404</v>
       </c>
       <c r="E3">
-        <v>0.4586818142212715</v>
+        <v>0.4080736043132533</v>
       </c>
       <c r="F3">
         <v>0.75</v>
@@ -478,13 +478,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.1131239405969842</v>
+        <v>0.1012073273290766</v>
       </c>
       <c r="D4">
-        <v>0.3372329604474966</v>
+        <v>0.2815624564290354</v>
       </c>
       <c r="E4">
-        <v>0.2579525553268546</v>
+        <v>0.2254573863136447</v>
       </c>
       <c r="F4">
         <v>0.7</v>
@@ -498,13 +498,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.06998757718104986</v>
+        <v>0.05802036788117948</v>
       </c>
       <c r="D5">
-        <v>0.1383755795446832</v>
+        <v>0.08288306390419219</v>
       </c>
       <c r="E5">
-        <v>0.1488252851040123</v>
+        <v>0.1204799443909722</v>
       </c>
       <c r="F5">
         <v>0.65</v>
@@ -518,13 +518,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.1070301189803036</v>
+        <v>0.09703029984097022</v>
       </c>
       <c r="D6">
-        <v>0.3100130702349997</v>
+        <v>0.2634536493271349</v>
       </c>
       <c r="E6">
-        <v>0.2593125624615202</v>
+        <v>0.2292825398496481</v>
       </c>
       <c r="F6">
         <v>0.65</v>
@@ -538,13 +538,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>0.1167212088687719</v>
+        <v>0.1066413337736236</v>
       </c>
       <c r="D7">
-        <v>0.3550125066083632</v>
+        <v>0.3080277228457511</v>
       </c>
       <c r="E7">
-        <v>0.2980071872296199</v>
+        <v>0.2649731768390082</v>
       </c>
       <c r="F7">
         <v>0.7</v>
